--- a/roguelike/model/data/rogue_stats.xlsx
+++ b/roguelike/model/data/rogue_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\roguelike\roguelike\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF7F926-CDB9-4ED9-BBB9-3978E40BB8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4AC0A3-AD26-4C75-8A64-5C963357BFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="1710" windowWidth="29640" windowHeight="17415" tabRatio="656" activeTab="4" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
+    <workbookView xWindow="7590" yWindow="3225" windowWidth="29640" windowHeight="15990" tabRatio="800" activeTab="3" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="ItemProbability" sheetId="21" r:id="rId5"/>
     <sheet name="EnemyCount" sheetId="4" r:id="rId6"/>
     <sheet name="GoldCount" sheetId="12" r:id="rId7"/>
-    <sheet name="ScrollProbability" sheetId="20" r:id="rId8"/>
-    <sheet name="GoldProbability" sheetId="13" r:id="rId9"/>
+    <sheet name="GoldProbability" sheetId="13" r:id="rId8"/>
+    <sheet name="ScrollProbability" sheetId="20" r:id="rId9"/>
     <sheet name="GoblinProbability" sheetId="18" r:id="rId10"/>
     <sheet name="TrollProbability" sheetId="10" r:id="rId11"/>
     <sheet name="OrcProbability" sheetId="9" r:id="rId12"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="19">
   <si>
     <t>d</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Out</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -11249,88 +11252,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-1.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11528,10 +11531,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -11558,16 +11561,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3</c:v>
@@ -11594,22 +11597,22 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13058,118 +13061,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>-15</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-12</c:v>
+                  <c:v>-0.39999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11</c:v>
+                  <c:v>-0.19999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9</c:v>
+                  <c:v>0.20000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8</c:v>
+                  <c:v>0.40000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>1.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13367,88 +13370,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13646,88 +13649,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14426,88 +14429,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14705,10 +14708,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
@@ -14717,34 +14720,34 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5</c:v>
@@ -14765,28 +14768,28 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15025,7 +15028,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ScrollProbability!$D$2</c:f>
+              <c:f>GoldProbability!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15048,7 +15051,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ScrollProbability!$A$3:$A$40</c:f>
+              <c:f>GoldProbability!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -15171,123 +15174,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScrollProbability!$D$3:$D$40</c:f>
+              <c:f>GoldProbability!$D$3:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="32">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15295,7 +15298,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B091-4B92-9550-2D37E84BF486}"/>
+              <c16:uniqueId val="{00000000-86C0-4856-B715-89122CE63530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15304,7 +15307,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ScrollProbability!$F$2</c:f>
+              <c:f>GoldProbability!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15327,7 +15330,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ScrollProbability!$A$3:$A$40</c:f>
+              <c:f>GoldProbability!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -15450,7 +15453,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScrollProbability!$F$3:$F$40</c:f>
+              <c:f>GoldProbability!$F$3:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -15485,88 +15488,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15574,7 +15577,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B091-4B92-9550-2D37E84BF486}"/>
+              <c16:uniqueId val="{00000001-86C0-4856-B715-89122CE63530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15583,7 +15586,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ScrollProbability!$J$2</c:f>
+              <c:f>GoldProbability!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15606,7 +15609,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ScrollProbability!$A$3:$A$40</c:f>
+              <c:f>GoldProbability!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -15729,123 +15732,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScrollProbability!$J$3:$J$40</c:f>
+              <c:f>GoldProbability!$J$3:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15853,7 +15856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B091-4B92-9550-2D37E84BF486}"/>
+              <c16:uniqueId val="{00000002-86C0-4856-B715-89122CE63530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16084,7 +16087,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>GoldProbability!$D$2</c:f>
+              <c:f>ScrollProbability!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16107,7 +16110,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>GoldProbability!$A$3:$A$40</c:f>
+              <c:f>ScrollProbability!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -16230,123 +16233,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoldProbability!$D$3:$D$40</c:f>
+              <c:f>ScrollProbability!$D$3:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16354,7 +16357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86C0-4856-B715-89122CE63530}"/>
+              <c16:uniqueId val="{00000000-B091-4B92-9550-2D37E84BF486}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16363,7 +16366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>GoldProbability!$F$2</c:f>
+              <c:f>ScrollProbability!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16386,7 +16389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>GoldProbability!$A$3:$A$40</c:f>
+              <c:f>ScrollProbability!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -16509,7 +16512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoldProbability!$F$3:$F$40</c:f>
+              <c:f>ScrollProbability!$F$3:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -16633,7 +16636,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-86C0-4856-B715-89122CE63530}"/>
+              <c16:uniqueId val="{00000001-B091-4B92-9550-2D37E84BF486}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16642,7 +16645,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>GoldProbability!$J$2</c:f>
+              <c:f>ScrollProbability!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16665,7 +16668,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>GoldProbability!$A$3:$A$40</c:f>
+              <c:f>ScrollProbability!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -16788,108 +16791,108 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoldProbability!$J$3:$J$40</c:f>
+              <c:f>ScrollProbability!$J$3:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>40</c:v>
@@ -16912,7 +16915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-86C0-4856-B715-89122CE63530}"/>
+              <c16:uniqueId val="{00000002-B091-4B92-9550-2D37E84BF486}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -26634,7 +26637,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E3D2C2-E9B1-482B-BF5F-9AECC5F75ECD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF87000-AA61-4600-81D4-5744B4D0826C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26677,7 +26680,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF87000-AA61-4600-81D4-5744B4D0826C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E3D2C2-E9B1-482B-BF5F-9AECC5F75ECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -43876,8 +43879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA6981B-5414-4D9E-8B71-1CF0750BA481}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43906,14 +43909,14 @@
         <v>10</v>
       </c>
       <c r="F1" s="20">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="16">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J1" s="14"/>
       <c r="M1" s="31" t="s">
@@ -43985,15 +43988,15 @@
       </c>
       <c r="P2" s="30">
         <f>F1</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="Q2" s="30">
         <f>H1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="30">
         <f>I1</f>
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -44026,11 +44029,11 @@
       </c>
       <c r="H3" s="5">
         <f>H$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <f>I$1</f>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J3" s="15">
         <f>MIN(MAX(H3,INT(G3)),I3)</f>
@@ -44067,11 +44070,11 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:I40" si="5">H$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J40" si="6">MIN(MAX(H4,INT(G4)),I4)</f>
@@ -44108,11 +44111,11 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="6"/>
@@ -44149,11 +44152,11 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="6"/>
@@ -44190,11 +44193,11 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="6"/>
@@ -44231,11 +44234,11 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="6"/>
@@ -44272,11 +44275,11 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="6"/>
@@ -44313,11 +44316,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="6"/>
@@ -44354,11 +44357,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="6"/>
@@ -44395,11 +44398,11 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="6"/>
@@ -44428,23 +44431,23 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -44469,23 +44472,23 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="4"/>
-        <v>2.1</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -44510,19 +44513,19 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="6"/>
@@ -44551,19 +44554,19 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="6"/>
@@ -44592,19 +44595,19 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="6"/>
@@ -44633,19 +44636,19 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="6"/>
@@ -44674,19 +44677,19 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="4"/>
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="6"/>
@@ -44715,19 +44718,19 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="4"/>
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="6"/>
@@ -44756,19 +44759,19 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="4"/>
-        <v>2.8</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="6"/>
@@ -44797,19 +44800,19 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="4"/>
-        <v>2.9000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="6"/>
@@ -44838,23 +44841,23 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -44879,23 +44882,23 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="4"/>
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -44920,23 +44923,23 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="4"/>
-        <v>3.2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -44961,23 +44964,23 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="4"/>
-        <v>3.3000000000000003</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -45002,19 +45005,19 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="4"/>
-        <v>3.4000000000000004</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="6"/>
@@ -45043,19 +45046,19 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="6"/>
@@ -45084,19 +45087,19 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="4"/>
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="6"/>
@@ -45125,19 +45128,19 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>3.7</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="6"/>
@@ -45166,19 +45169,19 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>3.8000000000000003</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="6"/>
@@ -45207,19 +45210,19 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="4"/>
-        <v>3.9000000000000004</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
@@ -45248,19 +45251,19 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
@@ -45290,19 +45293,19 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="6"/>
@@ -45332,23 +45335,23 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -45374,23 +45377,23 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="4"/>
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -45416,23 +45419,23 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -45458,23 +45461,23 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -45500,23 +45503,23 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -45542,23 +45545,23 @@
       </c>
       <c r="F40" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -45583,7 +45586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1F6E87-6DCD-47E2-8DF8-513B454830FF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:R2"/>
     </sheetView>
   </sheetViews>
@@ -47291,7 +47294,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M2" sqref="M2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47310,24 +47313,24 @@
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="19">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C1" s="20">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="28">
         <v>10</v>
       </c>
       <c r="F1" s="20">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="16">
         <v>0</v>
       </c>
       <c r="I1" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1" s="14"/>
       <c r="M1" s="31" t="s">
@@ -47353,8 +47356,8 @@
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22">
-        <v>1</v>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>8</v>
@@ -47387,11 +47390,11 @@
       </c>
       <c r="M2" s="30">
         <f>B1</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N2" s="30">
         <f>C1</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="30">
         <f>E1</f>
@@ -47399,7 +47402,7 @@
       </c>
       <c r="P2" s="30">
         <f>F1</f>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="30">
         <f>H1</f>
@@ -47407,7 +47410,7 @@
       </c>
       <c r="R2" s="30">
         <f>I1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -47420,11 +47423,11 @@
       </c>
       <c r="C3" s="2">
         <f>C$1</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="25">
         <f>SUM(B3:C3)</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="29">
         <f>QUOTIENT(A3,$E$1)</f>
@@ -47436,7 +47439,7 @@
       </c>
       <c r="G3" s="4">
         <f>D3+F3</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="5">
         <f>H$1</f>
@@ -47444,7 +47447,7 @@
       </c>
       <c r="I3" s="5">
         <f>I$1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="15">
         <f>MIN(MAX(H3,INT(G3)),I3)</f>
@@ -47457,15 +47460,15 @@
       </c>
       <c r="B4" s="24">
         <f t="shared" ref="B4:B40" si="0">$B$1*A4</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C40" si="1">C$1</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" ref="D4:D40" si="2">SUM(B4:C4)</f>
-        <v>-14</v>
+        <v>-0.8</v>
       </c>
       <c r="E4" s="29">
         <f>QUOTIENT(A4,$E$1)</f>
@@ -47477,7 +47480,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G40" si="4">D4+F4</f>
-        <v>-14</v>
+        <v>-0.8</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:I40" si="5">H$1</f>
@@ -47485,7 +47488,7 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J40" si="6">MIN(MAX(H4,INT(G4)),I4)</f>
@@ -47498,15 +47501,15 @@
       </c>
       <c r="B5" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="2"/>
-        <v>-13</v>
+        <v>-0.6</v>
       </c>
       <c r="E5" s="29">
         <f>QUOTIENT(A5,$E$1)</f>
@@ -47518,7 +47521,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="4"/>
-        <v>-13</v>
+        <v>-0.6</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="5"/>
@@ -47526,11 +47529,32 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -47539,15 +47563,15 @@
       </c>
       <c r="B6" s="24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="2"/>
-        <v>-12</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="E6" s="29">
         <f>QUOTIENT(A6,$E$1)</f>
@@ -47559,7 +47583,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="4"/>
-        <v>-12</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="5"/>
@@ -47567,7 +47591,7 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="6"/>
@@ -47580,15 +47604,15 @@
       </c>
       <c r="B7" s="24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="2"/>
-        <v>-11</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="E7" s="29">
         <f>QUOTIENT(A7,$E$1)</f>
@@ -47600,7 +47624,7 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
@@ -47608,7 +47632,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="6"/>
@@ -47621,15 +47645,15 @@
       </c>
       <c r="B8" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="2"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="29">
         <f>QUOTIENT(A8,$E$1)</f>
@@ -47641,7 +47665,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="4"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="5"/>
@@ -47649,7 +47673,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="6"/>
@@ -47662,15 +47686,15 @@
       </c>
       <c r="B9" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E9" s="29">
         <f>QUOTIENT(A9,$E$1)</f>
@@ -47682,7 +47706,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="4"/>
-        <v>-9</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="5"/>
@@ -47690,7 +47714,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="6"/>
@@ -47703,15 +47727,15 @@
       </c>
       <c r="B10" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="E10" s="29">
         <f>QUOTIENT(A10,$E$1)</f>
@@ -47723,7 +47747,7 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
@@ -47731,7 +47755,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="6"/>
@@ -47744,15 +47768,15 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E11" s="29">
         <f>QUOTIENT(A11,$E$1)</f>
@@ -47764,7 +47788,7 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
@@ -47772,7 +47796,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="6"/>
@@ -47785,15 +47809,15 @@
       </c>
       <c r="B12" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="29">
         <f>QUOTIENT(A12,$E$1)</f>
@@ -47805,7 +47829,7 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>-6</v>
+        <v>0.8</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="5"/>
@@ -47813,7 +47837,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="6"/>
@@ -47826,15 +47850,15 @@
       </c>
       <c r="B13" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="29">
         <f>QUOTIENT(A13,$E$1)</f>
@@ -47842,11 +47866,11 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="4"/>
-        <v>-4.95</v>
+        <v>1.25</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
@@ -47854,11 +47878,11 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -47867,15 +47891,15 @@
       </c>
       <c r="B14" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="E14" s="29">
         <f>QUOTIENT(A14,$E$1)</f>
@@ -47883,11 +47907,11 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="4"/>
-        <v>-3.95</v>
+        <v>1.4500000000000002</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="5"/>
@@ -47895,11 +47919,11 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -47908,15 +47932,15 @@
       </c>
       <c r="B15" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="E15" s="29">
         <f>QUOTIENT(A15,$E$1)</f>
@@ -47924,11 +47948,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="4"/>
-        <v>-2.95</v>
+        <v>1.6500000000000004</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
@@ -47936,11 +47960,11 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -47949,15 +47973,15 @@
       </c>
       <c r="B16" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>1.6</v>
       </c>
       <c r="E16" s="29">
         <f>QUOTIENT(A16,$E$1)</f>
@@ -47965,11 +47989,11 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="4"/>
-        <v>-1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
@@ -47977,11 +48001,11 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -47990,15 +48014,15 @@
       </c>
       <c r="B17" s="24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="E17" s="29">
         <f>QUOTIENT(A17,$E$1)</f>
@@ -48006,11 +48030,11 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="4"/>
-        <v>-0.95</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
@@ -48018,11 +48042,11 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -48031,15 +48055,15 @@
       </c>
       <c r="B18" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="29">
         <f>QUOTIENT(A18,$E$1)</f>
@@ -48047,11 +48071,11 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>2.25</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
@@ -48059,11 +48083,11 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -48072,15 +48096,15 @@
       </c>
       <c r="B19" s="24">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E19" s="29">
         <f>QUOTIENT(A19,$E$1)</f>
@@ -48088,11 +48112,11 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="4"/>
-        <v>1.05</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
@@ -48100,11 +48124,11 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -48113,15 +48137,15 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E20" s="29">
         <f>QUOTIENT(A20,$E$1)</f>
@@ -48129,11 +48153,11 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="4"/>
-        <v>2.0499999999999998</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="5"/>
@@ -48141,7 +48165,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="6"/>
@@ -48154,15 +48178,15 @@
       </c>
       <c r="B21" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>3.6</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E21" s="29">
         <f>QUOTIENT(A21,$E$1)</f>
@@ -48170,11 +48194,11 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="4"/>
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="5"/>
@@ -48182,11 +48206,11 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -48195,15 +48219,15 @@
       </c>
       <c r="B22" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="E22" s="29">
         <f>QUOTIENT(A22,$E$1)</f>
@@ -48211,11 +48235,11 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="4"/>
-        <v>4.05</v>
+        <v>3.0500000000000003</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
@@ -48223,11 +48247,11 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -48236,15 +48260,15 @@
       </c>
       <c r="B23" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="29">
         <f>QUOTIENT(A23,$E$1)</f>
@@ -48252,11 +48276,11 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
@@ -48264,11 +48288,11 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -48277,15 +48301,15 @@
       </c>
       <c r="B24" s="24">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>4.2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="E24" s="29">
         <f>QUOTIENT(A24,$E$1)</f>
@@ -48293,11 +48317,11 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="4"/>
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
@@ -48305,11 +48329,11 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -48318,15 +48342,15 @@
       </c>
       <c r="B25" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="E25" s="29">
         <f>QUOTIENT(A25,$E$1)</f>
@@ -48334,11 +48358,11 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
@@ -48346,11 +48370,11 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -48359,15 +48383,15 @@
       </c>
       <c r="B26" s="24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="E26" s="29">
         <f>QUOTIENT(A26,$E$1)</f>
@@ -48375,11 +48399,11 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="4"/>
-        <v>8.1</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="5"/>
@@ -48387,11 +48411,11 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -48400,15 +48424,15 @@
       </c>
       <c r="B27" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="E27" s="29">
         <f>QUOTIENT(A27,$E$1)</f>
@@ -48416,11 +48440,11 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="4"/>
-        <v>9.1</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="5"/>
@@ -48428,11 +48452,11 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -48441,15 +48465,15 @@
       </c>
       <c r="B28" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E28" s="29">
         <f>QUOTIENT(A28,$E$1)</f>
@@ -48457,11 +48481,11 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="4"/>
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="5"/>
@@ -48469,11 +48493,11 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -48482,15 +48506,15 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>5.2</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D29" s="25">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="E29" s="29">
         <f>QUOTIENT(A29,$E$1)</f>
@@ -48498,11 +48522,11 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="4"/>
-        <v>11.1</v>
+        <v>4.7</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="5"/>
@@ -48510,11 +48534,11 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -48523,15 +48547,15 @@
       </c>
       <c r="B30" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>5.4</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D30" s="25">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="29">
         <f>QUOTIENT(A30,$E$1)</f>
@@ -48539,11 +48563,11 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>12.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
@@ -48551,11 +48575,11 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -48564,15 +48588,15 @@
       </c>
       <c r="B31" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D31" s="25">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="E31" s="29">
         <f>QUOTIENT(A31,$E$1)</f>
@@ -48580,11 +48604,11 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>13.1</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
@@ -48592,11 +48616,11 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -48605,15 +48629,15 @@
       </c>
       <c r="B32" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="25">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="E32" s="29">
         <f>QUOTIENT(A32,$E$1)</f>
@@ -48621,11 +48645,11 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="4"/>
-        <v>14.1</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
@@ -48633,11 +48657,11 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -48646,15 +48670,15 @@
       </c>
       <c r="B33" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D33" s="25">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E33" s="29">
         <f>QUOTIENT(A33,$E$1)</f>
@@ -48662,11 +48686,11 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
-        <v>0.15000000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="4"/>
-        <v>15.15</v>
+        <v>5.75</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="5"/>
@@ -48674,11 +48698,11 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -48688,15 +48712,15 @@
       </c>
       <c r="B34" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="25">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E34" s="29">
         <f>QUOTIENT(A34,$E$1)</f>
@@ -48704,11 +48728,11 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>0.15000000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="4"/>
-        <v>20.149999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="5"/>
@@ -48716,11 +48740,11 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -48730,15 +48754,15 @@
       </c>
       <c r="B35" s="24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="25">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E35" s="29">
         <f>QUOTIENT(A35,$E$1)</f>
@@ -48746,11 +48770,11 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="4"/>
-        <v>25.2</v>
+        <v>8</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="5"/>
@@ -48758,11 +48782,11 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -48772,15 +48796,15 @@
       </c>
       <c r="B36" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="25">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E36" s="29">
         <f>QUOTIENT(A36,$E$1)</f>
@@ -48788,11 +48812,11 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="4"/>
-        <v>30.2</v>
+        <v>9</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="5"/>
@@ -48800,11 +48824,11 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -48814,15 +48838,15 @@
       </c>
       <c r="B37" s="24">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="25">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E37" s="29">
         <f>QUOTIENT(A37,$E$1)</f>
@@ -48830,11 +48854,11 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="4"/>
-        <v>35.25</v>
+        <v>10.25</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="5"/>
@@ -48842,11 +48866,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -48856,15 +48880,15 @@
       </c>
       <c r="B38" s="24">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="25">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E38" s="29">
         <f>QUOTIENT(A38,$E$1)</f>
@@ -48872,11 +48896,11 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>40.25</v>
+        <v>11.25</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="5"/>
@@ -48884,11 +48908,11 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -48898,15 +48922,15 @@
       </c>
       <c r="B39" s="24">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="25">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E39" s="29">
         <f>QUOTIENT(A39,$E$1)</f>
@@ -48914,11 +48938,11 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="4"/>
-        <v>45.3</v>
+        <v>12.5</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="5"/>
@@ -48926,11 +48950,11 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -48940,15 +48964,15 @@
       </c>
       <c r="B40" s="24">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="25">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E40" s="29">
         <f>QUOTIENT(A40,$E$1)</f>
@@ -48956,11 +48980,11 @@
       </c>
       <c r="F40" s="3">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="4"/>
-        <v>50.3</v>
+        <v>13.5</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="5"/>
@@ -48968,11 +48992,11 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -49027,14 +49051,14 @@
         <v>10</v>
       </c>
       <c r="F1" s="20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="16">
         <v>0</v>
       </c>
       <c r="I1" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="14"/>
       <c r="M1" s="31" t="s">
@@ -49106,7 +49130,7 @@
       </c>
       <c r="P2" s="30">
         <f>F1</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="30">
         <f>H1</f>
@@ -49114,7 +49138,7 @@
       </c>
       <c r="R2" s="30">
         <f>I1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -49151,7 +49175,7 @@
       </c>
       <c r="I3" s="5">
         <f>I$1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="15">
         <f>MIN(MAX(H3,INT(G3)),I3)</f>
@@ -49192,7 +49216,7 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J40" si="6">MIN(MAX(H4,INT(G4)),I4)</f>
@@ -49233,7 +49257,7 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="6"/>
@@ -49274,7 +49298,7 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="6"/>
@@ -49315,7 +49339,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="6"/>
@@ -49356,7 +49380,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="6"/>
@@ -49397,7 +49421,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="6"/>
@@ -49438,7 +49462,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="6"/>
@@ -49479,7 +49503,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="6"/>
@@ -49520,7 +49544,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="6"/>
@@ -49549,11 +49573,11 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
@@ -49561,11 +49585,11 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -49590,11 +49614,11 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="4"/>
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="5"/>
@@ -49602,11 +49626,11 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -49631,11 +49655,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="4"/>
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
@@ -49643,7 +49667,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="6"/>
@@ -49672,11 +49696,11 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="4"/>
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
@@ -49684,7 +49708,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="6"/>
@@ -49713,11 +49737,11 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="4"/>
-        <v>4.0999999999999996</v>
+        <v>3.35</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
@@ -49725,11 +49749,11 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -49754,11 +49778,11 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="4"/>
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
@@ -49766,11 +49790,11 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -49795,11 +49819,11 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
+        <v>3.65</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
@@ -49807,11 +49831,11 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -49836,11 +49860,11 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="4"/>
-        <v>4.55</v>
+        <v>3.8</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="5"/>
@@ -49848,11 +49872,11 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -49877,11 +49901,11 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="4"/>
-        <v>4.6999999999999993</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="5"/>
@@ -49889,11 +49913,11 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -49918,11 +49942,11 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="4"/>
-        <v>4.8499999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
@@ -49930,7 +49954,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="6"/>
@@ -49959,23 +49983,23 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="J23" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -50000,11 +50024,11 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="4"/>
-        <v>6.15</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
@@ -50012,11 +50036,11 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -50041,11 +50065,11 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="4"/>
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
@@ -50053,11 +50077,11 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -50082,11 +50106,11 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="4"/>
-        <v>6.4499999999999993</v>
+        <v>4.9499999999999993</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="5"/>
@@ -50094,11 +50118,11 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -50123,11 +50147,11 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="4"/>
-        <v>6.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="5"/>
@@ -50135,7 +50159,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="6"/>
@@ -50164,11 +50188,11 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="4"/>
-        <v>6.75</v>
+        <v>5.25</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="5"/>
@@ -50176,7 +50200,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="6"/>
@@ -50205,11 +50229,11 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="4"/>
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="5"/>
@@ -50217,7 +50241,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="6"/>
@@ -50246,11 +50270,11 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>7.05</v>
+        <v>5.55</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
@@ -50258,7 +50282,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="6"/>
@@ -50287,11 +50311,11 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
@@ -50299,7 +50323,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="6"/>
@@ -50328,11 +50352,11 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="4"/>
-        <v>7.35</v>
+        <v>5.85</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
@@ -50340,7 +50364,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
@@ -50369,11 +50393,11 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="4"/>
-        <v>8.5</v>
+        <v>6.25</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="5"/>
@@ -50381,11 +50405,11 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -50411,11 +50435,11 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="4"/>
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="5"/>
@@ -50423,11 +50447,11 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -50453,11 +50477,11 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="5"/>
@@ -50465,11 +50489,11 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -50495,11 +50519,11 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="4"/>
-        <v>11.75</v>
+        <v>8.75</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="5"/>
@@ -50507,11 +50531,11 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -50537,11 +50561,11 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>9.75</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="5"/>
@@ -50549,11 +50573,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -50579,11 +50603,11 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>14.25</v>
+        <v>10.5</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="5"/>
@@ -50591,11 +50615,11 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -50621,23 +50645,23 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G39" s="4">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="J39" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -50663,23 +50687,23 @@
       </c>
       <c r="F40" s="3">
         <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G40" s="4">
-        <f t="shared" si="4"/>
-        <v>16.75</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="J40" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -50701,6 +50725,1713 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E20462F-7A88-4B69-AB90-D870DF714C5D}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="19">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="28">
+        <v>10</v>
+      </c>
+      <c r="F1" s="20">
+        <v>2</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="16">
+        <v>10</v>
+      </c>
+      <c r="I1" s="16">
+        <v>45</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="M1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <f>"x DIV "&amp;E1</f>
+        <v>x DIV 10</v>
+      </c>
+      <c r="F2" s="33" t="str">
+        <f>"ax"&amp;E1</f>
+        <v>ax10</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="30">
+        <f>B1</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="30">
+        <f>C1</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="30">
+        <f>E1</f>
+        <v>10</v>
+      </c>
+      <c r="P2" s="30">
+        <f>F1</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>H1</f>
+        <v>10</v>
+      </c>
+      <c r="R2" s="30">
+        <f>I1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <f>$B$1*A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C$1</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SUM(B3:C3)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="29">
+        <f>QUOTIENT(A3,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3+F3</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>H$1</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
+        <f>I$1</f>
+        <v>45</v>
+      </c>
+      <c r="J3" s="15">
+        <f>MIN(MAX(H3,INT(G3)),I3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <f t="shared" ref="B4:B40" si="0">$B$1*A4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C40" si="1">C$1</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D40" si="2">SUM(B4:C4)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="29">
+        <f>QUOTIENT(A4,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F40" si="3">E4*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G40" si="4">D4+F4</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:I40" si="5">H$1</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J40" si="6">MIN(MAX(H4,INT(G4)),I4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="29">
+        <f>QUOTIENT(A5,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="29">
+        <f>QUOTIENT(A6,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="29">
+        <f>QUOTIENT(A7,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="29">
+        <f>QUOTIENT(A8,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="29">
+        <f>QUOTIENT(A9,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="29">
+        <f>QUOTIENT(A10,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="29">
+        <f>QUOTIENT(A11,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="29">
+        <f>QUOTIENT(A12,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="29">
+        <f>QUOTIENT(A13,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E14" s="29">
+        <f>QUOTIENT(A14,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E15" s="29">
+        <f>QUOTIENT(A15,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E16" s="29">
+        <f>QUOTIENT(A16,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="29">
+        <f>QUOTIENT(A17,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="29">
+        <f>QUOTIENT(A18,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E19" s="29">
+        <f>QUOTIENT(A19,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E20" s="29">
+        <f>QUOTIENT(A20,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E21" s="29">
+        <f>QUOTIENT(A21,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E22" s="29">
+        <f>QUOTIENT(A22,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="29">
+        <f>QUOTIENT(A23,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E24" s="29">
+        <f>QUOTIENT(A24,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E25" s="29">
+        <f>QUOTIENT(A25,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E26" s="29">
+        <f>QUOTIENT(A26,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E27" s="29">
+        <f>QUOTIENT(A27,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E28" s="29">
+        <f>QUOTIENT(A28,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E29" s="29">
+        <f>QUOTIENT(A29,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E30" s="29">
+        <f>QUOTIENT(A30,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E31" s="29">
+        <f>QUOTIENT(A31,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E32" s="29">
+        <f>QUOTIENT(A32,$E$1)</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E33" s="29">
+        <f>QUOTIENT(A33,$E$1)</f>
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f>A33+5</f>
+        <v>35</v>
+      </c>
+      <c r="B34" s="24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E34" s="29">
+        <f>QUOTIENT(A34,$E$1)</f>
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" ref="A35:A40" si="7">A34+5</f>
+        <v>40</v>
+      </c>
+      <c r="B35" s="24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E35" s="29">
+        <f>QUOTIENT(A35,$E$1)</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="B36" s="24">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E36" s="29">
+        <f>QUOTIENT(A36,$E$1)</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E37" s="29">
+        <f>QUOTIENT(A37,$E$1)</f>
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="B38" s="24">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E38" s="29">
+        <f>QUOTIENT(A38,$E$1)</f>
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="B39" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E39" s="29">
+        <f>QUOTIENT(A39,$E$1)</f>
+        <v>6</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="B40" s="24">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E40" s="29">
+        <f>QUOTIENT(A40,$E$1)</f>
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC41DB-C9DC-42BF-9D9B-E6CD1ABD40B3}">
   <dimension ref="A1:R40"/>
   <sheetViews>
@@ -52405,1711 +54136,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E20462F-7A88-4B69-AB90-D870DF714C5D}">
-  <dimension ref="A1:R40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20">
-        <v>-15</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="28">
-        <v>10</v>
-      </c>
-      <c r="F1" s="20">
-        <v>3</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1" s="16">
-        <v>40</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="M1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="32" t="str">
-        <f>"x DIV "&amp;E1</f>
-        <v>x DIV 10</v>
-      </c>
-      <c r="F2" s="33" t="str">
-        <f>"ax"&amp;E1</f>
-        <v>ax10</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="30">
-        <f>B1</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="30">
-        <f>C1</f>
-        <v>-15</v>
-      </c>
-      <c r="O2" s="30">
-        <f>E1</f>
-        <v>10</v>
-      </c>
-      <c r="P2" s="30">
-        <f>F1</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="30">
-        <f>H1</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="30">
-        <f>I1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24">
-        <f>$B$1*A3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <f>C$1</f>
-        <v>-15</v>
-      </c>
-      <c r="D3" s="25">
-        <f>SUM(B3:C3)</f>
-        <v>-15</v>
-      </c>
-      <c r="E3" s="29">
-        <f>QUOTIENT(A3,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f>E3*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <f>D3+F3</f>
-        <v>-15</v>
-      </c>
-      <c r="H3" s="5">
-        <f>H$1</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <f>I$1</f>
-        <v>40</v>
-      </c>
-      <c r="J3" s="15">
-        <f>MIN(MAX(H3,INT(G3)),I3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24">
-        <f t="shared" ref="B4:B40" si="0">$B$1*A4</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:C40" si="1">C$1</f>
-        <v>-15</v>
-      </c>
-      <c r="D4" s="25">
-        <f t="shared" ref="D4:D40" si="2">SUM(B4:C4)</f>
-        <v>-14</v>
-      </c>
-      <c r="E4" s="29">
-        <f>QUOTIENT(A4,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F40" si="3">E4*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G40" si="4">D4+F4</f>
-        <v>-14</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ref="H4:I40" si="5">H$1</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" ref="J4:J40" si="6">MIN(MAX(H4,INT(G4)),I4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D5" s="25">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="E5" s="29">
-        <f>QUOTIENT(A5,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="4"/>
-        <v>-13</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D6" s="25">
-        <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-      <c r="E6" s="29">
-        <f>QUOTIENT(A6,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="E7" s="29">
-        <f>QUOTIENT(A7,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="4"/>
-        <v>-11</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="E8" s="29">
-        <f>QUOTIENT(A8,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="E9" s="29">
-        <f>QUOTIENT(A9,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="E10" s="29">
-        <f>QUOTIENT(A10,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="E11" s="29">
-        <f>QUOTIENT(A11,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="4"/>
-        <v>-7</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D12" s="25">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="E12" s="29">
-        <f>QUOTIENT(A12,$E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="4"/>
-        <v>-6</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D13" s="25">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="E13" s="29">
-        <f>QUOTIENT(A13,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="E14" s="29">
-        <f>QUOTIENT(A14,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D15" s="25">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="E15" s="29">
-        <f>QUOTIENT(A15,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="24">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D16" s="25">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="E16" s="29">
-        <f>QUOTIENT(A16,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="24">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D17" s="25">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="E17" s="29">
-        <f>QUOTIENT(A17,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D18" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
-        <f>QUOTIENT(A18,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D19" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="29">
-        <f>QUOTIENT(A19,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>17</v>
-      </c>
-      <c r="B20" s="24">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D20" s="25">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="29">
-        <f>QUOTIENT(A20,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D21" s="25">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E21" s="29">
-        <f>QUOTIENT(A21,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>19</v>
-      </c>
-      <c r="B22" s="24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D22" s="25">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E22" s="29">
-        <f>QUOTIENT(A22,$E$1)</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>20</v>
-      </c>
-      <c r="B23" s="24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D23" s="25">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E23" s="29">
-        <f>QUOTIENT(A23,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>21</v>
-      </c>
-      <c r="B24" s="24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D24" s="25">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E24" s="29">
-        <f>QUOTIENT(A24,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D25" s="25">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E25" s="29">
-        <f>QUOTIENT(A25,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>23</v>
-      </c>
-      <c r="B26" s="24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D26" s="25">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E26" s="29">
-        <f>QUOTIENT(A26,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D27" s="25">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E27" s="29">
-        <f>QUOTIENT(A27,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>25</v>
-      </c>
-      <c r="B28" s="24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D28" s="25">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E28" s="29">
-        <f>QUOTIENT(A28,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>26</v>
-      </c>
-      <c r="B29" s="24">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D29" s="25">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E29" s="29">
-        <f>QUOTIENT(A29,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>27</v>
-      </c>
-      <c r="B30" s="24">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D30" s="25">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E30" s="29">
-        <f>QUOTIENT(A30,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>28</v>
-      </c>
-      <c r="B31" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D31" s="25">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E31" s="29">
-        <f>QUOTIENT(A31,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>29</v>
-      </c>
-      <c r="B32" s="24">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D32" s="25">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E32" s="29">
-        <f>QUOTIENT(A32,$E$1)</f>
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>30</v>
-      </c>
-      <c r="B33" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D33" s="25">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E33" s="29">
-        <f>QUOTIENT(A33,$E$1)</f>
-        <v>3</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <f>A33+5</f>
-        <v>35</v>
-      </c>
-      <c r="B34" s="24">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E34" s="29">
-        <f>QUOTIENT(A34,$E$1)</f>
-        <v>3</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <f t="shared" ref="A35:A40" si="7">A34+5</f>
-        <v>40</v>
-      </c>
-      <c r="B35" s="24">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D35" s="25">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E35" s="29">
-        <f>QUOTIENT(A35,$E$1)</f>
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="B36" s="24">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D36" s="25">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E36" s="29">
-        <f>QUOTIENT(A36,$E$1)</f>
-        <v>4</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="B37" s="24">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D37" s="25">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="E37" s="29">
-        <f>QUOTIENT(A37,$E$1)</f>
-        <v>5</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="B38" s="24">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D38" s="25">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="E38" s="29">
-        <f>QUOTIENT(A38,$E$1)</f>
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="B39" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D39" s="25">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="E39" s="29">
-        <f>QUOTIENT(A39,$E$1)</f>
-        <v>6</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="B40" s="24">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="D40" s="25">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E40" s="29">
-        <f>QUOTIENT(A40,$E$1)</f>
-        <v>6</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/roguelike/model/data/rogue_stats.xlsx
+++ b/roguelike/model/data/rogue_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\roguelike\roguelike\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80287224-4A12-4EDC-AAF5-CC97125ACB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FE125-D082-420C-9C87-35D04B549FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2220" windowWidth="24855" windowHeight="17160" tabRatio="800" firstSheet="7" activeTab="16" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
+    <workbookView xWindow="8655" yWindow="1140" windowWidth="24855" windowHeight="17160" tabRatio="800" firstSheet="7" activeTab="16" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -41658,7 +41658,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/roguelike/model/data/rogue_stats.xlsx
+++ b/roguelike/model/data/rogue_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\roguelike\roguelike\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FE125-D082-420C-9C87-35D04B549FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA9B2F1-6C0C-4CD0-BD83-35044C69050F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="1140" windowWidth="24855" windowHeight="17160" tabRatio="800" firstSheet="7" activeTab="16" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
+    <workbookView xWindow="1155" yWindow="1755" windowWidth="27720" windowHeight="18690" tabRatio="671" firstSheet="9" activeTab="18" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="AxeProbability" sheetId="15" r:id="rId15"/>
     <sheet name="Tester" sheetId="11" r:id="rId16"/>
     <sheet name="Rewards" sheetId="22" r:id="rId17"/>
+    <sheet name="MaxXPPerRoom" sheetId="24" r:id="rId18"/>
+    <sheet name="Reverser" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="35">
   <si>
     <t>d</t>
   </si>
@@ -135,6 +137,24 @@
   <si>
     <t>EliteKW</t>
   </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +536,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9414,6 +9443,2358 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1249549728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MaxXPPerRoom!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=(ax+b)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MaxXPPerRoom!$A$3:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MaxXPPerRoom!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAFE-41CB-B803-6AC91F86CD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MaxXPPerRoom!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ax10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MaxXPPerRoom!$A$3:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MaxXPPerRoom!$F$3:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAFE-41CB-B803-6AC91F86CD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MaxXPPerRoom!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int(total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MaxXPPerRoom!$A$3:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MaxXPPerRoom!$J$3:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAFE-41CB-B803-6AC91F86CD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="219670847"/>
+        <c:axId val="136156111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="219670847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136156111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136156111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219670847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reverser!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=(ax+b)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reverser!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reverser!$D$3:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A42B-49C6-818D-8E100DB98D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reverser!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ax20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reverser!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reverser!$F$3:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A42B-49C6-818D-8E100DB98D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reverser!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int(total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reverser!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reverser!$J$3:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A42B-49C6-818D-8E100DB98D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="219670847"/>
+        <c:axId val="136156111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="219670847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136156111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136156111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219670847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18293,6 +20674,86 @@
 </file>
 
 <file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22781,6 +25242,1038 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27807,6 +31300,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8CE7ED-0B7A-4C8B-AC85-9162E54F0DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5441497E-D5FF-42A8-A6D9-F6C24345B6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -41657,7 +45236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F6FA8E-D838-4489-A9B1-2D03B9B2AF91}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -42440,6 +46019,4066 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EE3EB6-63D3-40A8-B047-71CBFBFB66DC}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="19">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20">
+        <v>50</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="28">
+        <v>10</v>
+      </c>
+      <c r="F1" s="20">
+        <v>50</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="M1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <f>"x DIV "&amp;E1</f>
+        <v>x DIV 10</v>
+      </c>
+      <c r="F2" s="33" t="str">
+        <f>"ax"&amp;E1</f>
+        <v>ax10</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="30">
+        <f>B1</f>
+        <v>20</v>
+      </c>
+      <c r="N2" s="30">
+        <f>C1</f>
+        <v>50</v>
+      </c>
+      <c r="O2" s="30">
+        <f>E1</f>
+        <v>10</v>
+      </c>
+      <c r="P2" s="30">
+        <f>F1</f>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="30">
+        <f>I1</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <f>$B$1*A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C$1</f>
+        <v>50</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SUM(B3:C3)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" ref="E3:E40" si="0">QUOTIENT(A3,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3+F3</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="5">
+        <f>H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>I$1</f>
+        <v>1000</v>
+      </c>
+      <c r="J3" s="15">
+        <f>MIN(MAX(H3,INT(G3)),I3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <f t="shared" ref="B4:B40" si="1">$B$1*A4</f>
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C40" si="2">C$1</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D40" si="3">SUM(B4:C4)</f>
+        <v>70</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F40" si="4">E4*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G40" si="5">D4+F4</f>
+        <v>70</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:I40" si="6">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J40" si="7">MIN(MAX(H4,INT(G4)),I4)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="7"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="7"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="5"/>
+        <v>590</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="7"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="5"/>
+        <v>610</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="7"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="7"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="7"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
+        <v>670</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="7"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>690</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="7"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="5"/>
+        <v>710</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="7"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="5"/>
+        <v>730</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="7"/>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f>A33+5</f>
+        <v>35</v>
+      </c>
+      <c r="B34" s="24">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" ref="A35:A40" si="8">A34+5</f>
+        <v>40</v>
+      </c>
+      <c r="B35" s="24">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>1050</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="B36" s="24">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="5"/>
+        <v>1150</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="24">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="B38" s="24">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="3"/>
+        <v>1150</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="B39" s="24">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="5"/>
+        <v>1550</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="B40" s="24">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="E40" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="5"/>
+        <v>1650</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777A321E-677D-49AB-9B53-35D373534973}">
+  <dimension ref="A1:U53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19">
+        <f>P5</f>
+        <v>0.3</v>
+      </c>
+      <c r="C1" s="20">
+        <f>Q5</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="28">
+        <f>R5</f>
+        <v>20</v>
+      </c>
+      <c r="F1" s="20">
+        <f>S5</f>
+        <v>-20</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="16">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="16">
+        <f>U5</f>
+        <v>4</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="M1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <f>"x DIV "&amp;E1</f>
+        <v>x DIV 20</v>
+      </c>
+      <c r="F2" s="33" t="str">
+        <f>"ax"&amp;E1</f>
+        <v>ax20</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="30">
+        <f>B1</f>
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="30">
+        <f>C1</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="30">
+        <f>E1</f>
+        <v>20</v>
+      </c>
+      <c r="P2" s="30">
+        <f>F1</f>
+        <v>-20</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="30">
+        <f>I1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <f>$B$1*A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C$1</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SUM(B3:C3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" ref="E3:E40" si="0">QUOTIENT(A3,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3+F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <f>H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>I$1</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="15">
+        <f>MIN(MAX(H3,INT(G3)),I3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>A3+$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <f t="shared" ref="B4:B40" si="1">$B$1*A4</f>
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C53" si="2">C$1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D40" si="3">SUM(B4:C4)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F40" si="4">E4*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G40" si="5">D4+F4</f>
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:I41" si="6">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J40" si="7">MIN(MAX(H4,INT(G4)),I4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A40" si="8">A4+$A$1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>0.3</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>-20</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="3"/>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>4.3</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="5"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="5"/>
+        <v>5.8</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>6.1</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="3"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>6.7</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="3"/>
+        <v>7.3</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>-12.7</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>7.6</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="5"/>
+        <v>-12.4</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="3"/>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="5"/>
+        <v>-12.100000000000001</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
+        <v>-11.8</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="5"/>
+        <v>-11.5</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
+        <v>-11.2</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="3"/>
+        <v>9.1</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>-10.9</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="3"/>
+        <v>9.4</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="5"/>
+        <v>-10.6</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="3"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="5"/>
+        <v>-10.3</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="24">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="3"/>
+        <v>10.299999999999999</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.7000000000000011</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="24">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="3"/>
+        <v>10.6</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.4</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="24">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="3"/>
+        <v>10.9</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.1</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="24">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="3"/>
+        <v>11.2</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="24">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.5</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="24">
+        <f t="shared" si="1"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="3"/>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.2000000000000011</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="24">
+        <f t="shared" si="1"/>
+        <v>11.1</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="3"/>
+        <v>12.1</v>
+      </c>
+      <c r="E40" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.9</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f t="shared" ref="A41:A53" si="9">A40+$A$1</f>
+        <v>38</v>
+      </c>
+      <c r="B41" s="24">
+        <f t="shared" ref="B41:B53" si="10">$B$1*A41</f>
+        <v>11.4</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" ref="D41:D53" si="11">SUM(B41:C41)</f>
+        <v>12.4</v>
+      </c>
+      <c r="E41" s="29">
+        <f t="shared" ref="E41:E53" si="12">QUOTIENT(A41,$E$1)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" ref="F41:F53" si="13">E41*F$1</f>
+        <v>-20</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" ref="G41:G53" si="14">D41+F41</f>
+        <v>-7.6</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J53" si="15">MIN(MAX(H41,INT(G41)),I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="24">
+        <f t="shared" si="10"/>
+        <v>11.7</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="11"/>
+        <v>12.7</v>
+      </c>
+      <c r="E42" s="29">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="13"/>
+        <v>-20</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="14"/>
+        <v>-7.3000000000000007</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ref="H42:I53" si="16">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="24">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="E43" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="14"/>
+        <v>-27</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="24">
+        <f t="shared" si="10"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="11"/>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="E44" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="14"/>
+        <v>-26.700000000000003</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="24">
+        <f t="shared" si="10"/>
+        <v>12.6</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="11"/>
+        <v>13.6</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="14"/>
+        <v>-26.4</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="24">
+        <f t="shared" si="10"/>
+        <v>12.9</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="11"/>
+        <v>13.9</v>
+      </c>
+      <c r="E46" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="14"/>
+        <v>-26.1</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="24">
+        <f t="shared" si="10"/>
+        <v>13.2</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="11"/>
+        <v>14.2</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="14"/>
+        <v>-25.8</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="24">
+        <f t="shared" si="10"/>
+        <v>13.5</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="14"/>
+        <v>-25.5</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="24">
+        <f t="shared" si="10"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="11"/>
+        <v>14.799999999999999</v>
+      </c>
+      <c r="E49" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="14"/>
+        <v>-25.200000000000003</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="24">
+        <f t="shared" si="10"/>
+        <v>14.1</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="11"/>
+        <v>15.1</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="14"/>
+        <v>-24.9</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="24">
+        <f t="shared" si="10"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="11"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="14"/>
+        <v>-24.6</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="24">
+        <f t="shared" si="10"/>
+        <v>14.7</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="11"/>
+        <v>15.7</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="14"/>
+        <v>-24.3</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="24">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="14"/>
+        <v>-24</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/roguelike/model/data/rogue_stats.xlsx
+++ b/roguelike/model/data/rogue_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\roguelike\roguelike\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA9B2F1-6C0C-4CD0-BD83-35044C69050F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B22D13-4A30-4713-AA34-04591FB4D32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1755" windowWidth="27720" windowHeight="18690" tabRatio="671" firstSheet="9" activeTab="18" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
+    <workbookView xWindow="5340" yWindow="1245" windowWidth="27720" windowHeight="18690" tabRatio="671" firstSheet="9" activeTab="18" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -147,20 +147,20 @@
     <t>Scope</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Probability</t>
   </si>
   <si>
-    <t>Room</t>
+    <t>Plate Armour</t>
   </si>
   <si>
-    <t>Orc</t>
+    <t>Floor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +176,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,6 +550,24 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10803,157 +10834,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6999999999999997</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3999999999999995</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.3</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8999999999999995</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.4</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.299999999999999</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.9</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.2</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.799999999999999</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.1</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.4</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.7</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.299999999999999</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.6</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.9</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.2</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.799999999999999</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.1</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15.399999999999999</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15.7</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11220,97 +11251,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-20</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-40</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11517,157 +11548,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -47734,7 +47765,7 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L5" sqref="L5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47755,31 +47786,31 @@
       <c r="A1" s="17">
         <v>1</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="36">
         <f>P5</f>
-        <v>0.3</v>
-      </c>
-      <c r="C1" s="20">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37">
         <f>Q5</f>
-        <v>1</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="28">
+        <v>0</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39">
         <f>R5</f>
         <v>20</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="37">
         <f>S5</f>
-        <v>-20</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="16">
+        <v>-100</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41">
         <f>T5</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="16">
+        <v>10</v>
+      </c>
+      <c r="I1" s="41">
         <f>U5</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J1" s="14"/>
       <c r="M1" s="31" t="s">
@@ -47839,11 +47870,11 @@
       </c>
       <c r="M2" s="30">
         <f>B1</f>
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="30">
         <f>C1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="30">
         <f>E1</f>
@@ -47851,15 +47882,15 @@
       </c>
       <c r="P2" s="30">
         <f>F1</f>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="Q2" s="30">
         <f>H1</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R2" s="30">
         <f>I1</f>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -47872,11 +47903,11 @@
       </c>
       <c r="C3" s="2">
         <f>C$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="25">
         <f>SUM(B3:C3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="29">
         <f t="shared" ref="E3:E40" si="0">QUOTIENT(A3,$E$1)</f>
@@ -47888,19 +47919,19 @@
       </c>
       <c r="G3" s="4">
         <f>D3+F3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <f>H$1</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="5">
         <f>I$1</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J3" s="15">
         <f>MIN(MAX(H3,INT(G3)),I3)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -47910,15 +47941,15 @@
       </c>
       <c r="B4" s="24">
         <f t="shared" ref="B4:B40" si="1">$B$1*A4</f>
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C53" si="2">C$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" ref="D4:D40" si="3">SUM(B4:C4)</f>
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="29">
         <f t="shared" si="0"/>
@@ -47930,19 +47961,19 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G40" si="5">D4+F4</f>
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:I41" si="6">H$1</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J40" si="7">MIN(MAX(H4,INT(G4)),I4)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L4" s="35" t="s">
         <v>29</v>
@@ -47982,15 +48013,15 @@
       </c>
       <c r="B5" s="24">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="0"/>
@@ -48002,49 +48033,49 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
       </c>
       <c r="P5">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>20</v>
       </c>
       <c r="S5">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -48054,15 +48085,15 @@
       </c>
       <c r="B6" s="24">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="3"/>
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="0"/>
@@ -48074,19 +48105,19 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -48096,15 +48127,15 @@
       </c>
       <c r="B7" s="24">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>8</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
@@ -48116,19 +48147,19 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
+        <v>8</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -48138,15 +48169,15 @@
       </c>
       <c r="B8" s="24">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="0"/>
@@ -48158,19 +48189,19 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -48180,15 +48211,15 @@
       </c>
       <c r="B9" s="24">
         <f t="shared" si="1"/>
-        <v>1.7999999999999998</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="3"/>
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="0"/>
@@ -48200,19 +48231,19 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="5"/>
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -48222,15 +48253,15 @@
       </c>
       <c r="B10" s="24">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="3"/>
-        <v>3.1</v>
+        <v>14</v>
       </c>
       <c r="E10" s="29">
         <f t="shared" si="0"/>
@@ -48242,19 +48273,19 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
-        <v>3.1</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -48264,15 +48295,15 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="3"/>
-        <v>3.4</v>
+        <v>16</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" si="0"/>
@@ -48284,19 +48315,19 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" si="5"/>
-        <v>3.4</v>
+        <v>16</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -48306,15 +48337,15 @@
       </c>
       <c r="B12" s="24">
         <f t="shared" si="1"/>
-        <v>2.6999999999999997</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="3"/>
-        <v>3.6999999999999997</v>
+        <v>18</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="0"/>
@@ -48326,19 +48357,19 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="5"/>
-        <v>3.6999999999999997</v>
+        <v>18</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -48348,15 +48379,15 @@
       </c>
       <c r="B13" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E13" s="29">
         <f t="shared" si="0"/>
@@ -48368,19 +48399,19 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -48390,15 +48421,15 @@
       </c>
       <c r="B14" s="24">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="3"/>
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="0"/>
@@ -48410,19 +48441,19 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="5"/>
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -48432,15 +48463,15 @@
       </c>
       <c r="B15" s="24">
         <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="3"/>
-        <v>4.5999999999999996</v>
+        <v>24</v>
       </c>
       <c r="E15" s="29">
         <f t="shared" si="0"/>
@@ -48452,19 +48483,19 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
+        <v>24</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -48474,15 +48505,15 @@
       </c>
       <c r="B16" s="24">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>26</v>
       </c>
       <c r="E16" s="29">
         <f t="shared" si="0"/>
@@ -48494,19 +48525,19 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
+        <v>26</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -48516,15 +48547,15 @@
       </c>
       <c r="B17" s="24">
         <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>28</v>
       </c>
       <c r="E17" s="29">
         <f t="shared" si="0"/>
@@ -48536,19 +48567,19 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
-        <v>5.2</v>
+        <v>28</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -48558,15 +48589,15 @@
       </c>
       <c r="B18" s="24">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>30</v>
       </c>
       <c r="E18" s="29">
         <f t="shared" si="0"/>
@@ -48578,19 +48609,19 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>30</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -48600,15 +48631,15 @@
       </c>
       <c r="B19" s="24">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>5.8</v>
+        <v>32</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
@@ -48620,19 +48651,19 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
-        <v>5.8</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -48642,15 +48673,15 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="3"/>
-        <v>6.1</v>
+        <v>34</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="0"/>
@@ -48662,19 +48693,19 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
-        <v>6.1</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -48684,15 +48715,15 @@
       </c>
       <c r="B21" s="24">
         <f t="shared" si="1"/>
-        <v>5.3999999999999995</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="3"/>
-        <v>6.3999999999999995</v>
+        <v>36</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="0"/>
@@ -48704,19 +48735,19 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>6.3999999999999995</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -48726,15 +48757,15 @@
       </c>
       <c r="B22" s="24">
         <f t="shared" si="1"/>
-        <v>5.7</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="3"/>
-        <v>6.7</v>
+        <v>38</v>
       </c>
       <c r="E22" s="29">
         <f t="shared" si="0"/>
@@ -48746,19 +48777,19 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
-        <v>6.7</v>
+        <v>38</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -48768,39 +48799,39 @@
       </c>
       <c r="B23" s="24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D23" s="25">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F23" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-60</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -48810,39 +48841,39 @@
       </c>
       <c r="B24" s="24">
         <f t="shared" si="1"/>
-        <v>6.3</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D24" s="25">
-        <f t="shared" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F24" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
-        <v>-12.7</v>
+        <v>-58</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -48852,39 +48883,39 @@
       </c>
       <c r="B25" s="24">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D25" s="25">
-        <f t="shared" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F25" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
-        <v>-12.4</v>
+        <v>-56</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -48894,39 +48925,39 @@
       </c>
       <c r="B26" s="24">
         <f t="shared" si="1"/>
-        <v>6.8999999999999995</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D26" s="25">
-        <f t="shared" si="3"/>
-        <v>7.8999999999999995</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F26" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
-        <v>-12.100000000000001</v>
+        <v>-54</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -48936,39 +48967,39 @@
       </c>
       <c r="B27" s="24">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D27" s="25">
-        <f t="shared" si="3"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E27" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F27" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="5"/>
-        <v>-11.8</v>
+        <v>-52</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -48978,39 +49009,39 @@
       </c>
       <c r="B28" s="24">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D28" s="25">
-        <f t="shared" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="E28" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F28" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="5"/>
-        <v>-11.5</v>
+        <v>-50</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -49020,39 +49051,39 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" si="1"/>
-        <v>7.8</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="25">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E29" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F29" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="5"/>
-        <v>-11.2</v>
+        <v>-48</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -49062,39 +49093,39 @@
       </c>
       <c r="B30" s="24">
         <f t="shared" si="1"/>
-        <v>8.1</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30" s="25">
-        <f t="shared" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="E30" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F30" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="5"/>
-        <v>-10.9</v>
+        <v>-46</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -49104,39 +49135,39 @@
       </c>
       <c r="B31" s="24">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D31" s="25">
-        <f t="shared" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="E31" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F31" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="5"/>
-        <v>-10.6</v>
+        <v>-44</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -49146,39 +49177,39 @@
       </c>
       <c r="B32" s="24">
         <f t="shared" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D32" s="25">
-        <f t="shared" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E32" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F32" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="5"/>
-        <v>-10.3</v>
+        <v>-42</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -49188,39 +49219,39 @@
       </c>
       <c r="B33" s="24">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D33" s="25">
-        <f t="shared" si="3"/>
+      <c r="F33" s="3">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>-40</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E33" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="4"/>
-        <v>-20</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="I33" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -49230,39 +49261,39 @@
       </c>
       <c r="B34" s="24">
         <f t="shared" si="1"/>
-        <v>9.2999999999999989</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D34" s="25">
-        <f t="shared" si="3"/>
-        <v>10.299999999999999</v>
-      </c>
-      <c r="E34" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F34" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="5"/>
-        <v>-9.7000000000000011</v>
+        <v>-38</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -49272,39 +49303,39 @@
       </c>
       <c r="B35" s="24">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D35" s="25">
-        <f t="shared" si="3"/>
-        <v>10.6</v>
-      </c>
-      <c r="E35" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F35" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="5"/>
-        <v>-9.4</v>
+        <v>-36</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -49314,39 +49345,39 @@
       </c>
       <c r="B36" s="24">
         <f t="shared" si="1"/>
-        <v>9.9</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D36" s="25">
-        <f t="shared" si="3"/>
-        <v>10.9</v>
-      </c>
-      <c r="E36" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F36" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="5"/>
-        <v>-9.1</v>
+        <v>-34</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -49356,39 +49387,39 @@
       </c>
       <c r="B37" s="24">
         <f t="shared" si="1"/>
-        <v>10.199999999999999</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D37" s="25">
-        <f t="shared" si="3"/>
-        <v>11.2</v>
-      </c>
-      <c r="E37" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F37" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="5"/>
-        <v>-8.8000000000000007</v>
+        <v>-32</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -49398,39 +49429,39 @@
       </c>
       <c r="B38" s="24">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D38" s="25">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="E38" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F38" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="5"/>
-        <v>-8.5</v>
+        <v>-30</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -49440,39 +49471,39 @@
       </c>
       <c r="B39" s="24">
         <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D39" s="25">
-        <f t="shared" si="3"/>
-        <v>11.799999999999999</v>
-      </c>
-      <c r="E39" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F39" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="5"/>
-        <v>-8.2000000000000011</v>
+        <v>-28</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -49482,39 +49513,39 @@
       </c>
       <c r="B40" s="24">
         <f t="shared" si="1"/>
-        <v>11.1</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E40" s="29">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D40" s="25">
-        <f t="shared" si="3"/>
-        <v>12.1</v>
-      </c>
-      <c r="E40" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F40" s="3">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="5"/>
-        <v>-7.9</v>
+        <v>-26</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -49524,15 +49555,15 @@
       </c>
       <c r="B41" s="24">
         <f t="shared" ref="B41:B53" si="10">$B$1*A41</f>
-        <v>11.4</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="25">
         <f t="shared" ref="D41:D53" si="11">SUM(B41:C41)</f>
-        <v>12.4</v>
+        <v>76</v>
       </c>
       <c r="E41" s="29">
         <f t="shared" ref="E41:E53" si="12">QUOTIENT(A41,$E$1)</f>
@@ -49540,23 +49571,23 @@
       </c>
       <c r="F41" s="3">
         <f t="shared" ref="F41:F53" si="13">E41*F$1</f>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" ref="G41:G53" si="14">D41+F41</f>
-        <v>-7.6</v>
+        <v>-24</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J41" s="15">
         <f t="shared" ref="J41:J53" si="15">MIN(MAX(H41,INT(G41)),I41)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -49566,15 +49597,15 @@
       </c>
       <c r="B42" s="24">
         <f t="shared" si="10"/>
-        <v>11.7</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="25">
         <f t="shared" si="11"/>
-        <v>12.7</v>
+        <v>78</v>
       </c>
       <c r="E42" s="29">
         <f t="shared" si="12"/>
@@ -49582,23 +49613,23 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" si="13"/>
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="14"/>
-        <v>-7.3000000000000007</v>
+        <v>-22</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ref="H42:I53" si="16">H$1</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -49608,15 +49639,15 @@
       </c>
       <c r="B43" s="24">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="25">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E43" s="29">
         <f t="shared" si="12"/>
@@ -49624,23 +49655,23 @@
       </c>
       <c r="F43" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="14"/>
-        <v>-27</v>
+        <v>-120</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J43" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -49650,15 +49681,15 @@
       </c>
       <c r="B44" s="24">
         <f t="shared" si="10"/>
-        <v>12.299999999999999</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="25">
         <f t="shared" si="11"/>
-        <v>13.299999999999999</v>
+        <v>82</v>
       </c>
       <c r="E44" s="29">
         <f t="shared" si="12"/>
@@ -49666,23 +49697,23 @@
       </c>
       <c r="F44" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="14"/>
-        <v>-26.700000000000003</v>
+        <v>-118</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -49692,15 +49723,15 @@
       </c>
       <c r="B45" s="24">
         <f t="shared" si="10"/>
-        <v>12.6</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="25">
         <f t="shared" si="11"/>
-        <v>13.6</v>
+        <v>84</v>
       </c>
       <c r="E45" s="29">
         <f t="shared" si="12"/>
@@ -49708,23 +49739,23 @@
       </c>
       <c r="F45" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="14"/>
-        <v>-26.4</v>
+        <v>-116</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -49734,15 +49765,15 @@
       </c>
       <c r="B46" s="24">
         <f t="shared" si="10"/>
-        <v>12.9</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="25">
         <f t="shared" si="11"/>
-        <v>13.9</v>
+        <v>86</v>
       </c>
       <c r="E46" s="29">
         <f t="shared" si="12"/>
@@ -49750,23 +49781,23 @@
       </c>
       <c r="F46" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="14"/>
-        <v>-26.1</v>
+        <v>-114</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -49776,15 +49807,15 @@
       </c>
       <c r="B47" s="24">
         <f t="shared" si="10"/>
-        <v>13.2</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="25">
         <f t="shared" si="11"/>
-        <v>14.2</v>
+        <v>88</v>
       </c>
       <c r="E47" s="29">
         <f t="shared" si="12"/>
@@ -49792,23 +49823,23 @@
       </c>
       <c r="F47" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="14"/>
-        <v>-25.8</v>
+        <v>-112</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -49818,15 +49849,15 @@
       </c>
       <c r="B48" s="24">
         <f t="shared" si="10"/>
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" si="11"/>
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="E48" s="29">
         <f t="shared" si="12"/>
@@ -49834,23 +49865,23 @@
       </c>
       <c r="F48" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="14"/>
-        <v>-25.5</v>
+        <v>-110</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -49860,15 +49891,15 @@
       </c>
       <c r="B49" s="24">
         <f t="shared" si="10"/>
-        <v>13.799999999999999</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="25">
         <f t="shared" si="11"/>
-        <v>14.799999999999999</v>
+        <v>92</v>
       </c>
       <c r="E49" s="29">
         <f t="shared" si="12"/>
@@ -49876,23 +49907,23 @@
       </c>
       <c r="F49" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="14"/>
-        <v>-25.200000000000003</v>
+        <v>-108</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J49" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -49902,15 +49933,15 @@
       </c>
       <c r="B50" s="24">
         <f t="shared" si="10"/>
-        <v>14.1</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="25">
         <f t="shared" si="11"/>
-        <v>15.1</v>
+        <v>94</v>
       </c>
       <c r="E50" s="29">
         <f t="shared" si="12"/>
@@ -49918,23 +49949,23 @@
       </c>
       <c r="F50" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="14"/>
-        <v>-24.9</v>
+        <v>-106</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -49944,15 +49975,15 @@
       </c>
       <c r="B51" s="24">
         <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="25">
         <f t="shared" si="11"/>
-        <v>15.399999999999999</v>
+        <v>96</v>
       </c>
       <c r="E51" s="29">
         <f t="shared" si="12"/>
@@ -49960,23 +49991,23 @@
       </c>
       <c r="F51" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="14"/>
-        <v>-24.6</v>
+        <v>-104</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J51" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -49986,15 +50017,15 @@
       </c>
       <c r="B52" s="24">
         <f t="shared" si="10"/>
-        <v>14.7</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="25">
         <f t="shared" si="11"/>
-        <v>15.7</v>
+        <v>98</v>
       </c>
       <c r="E52" s="29">
         <f t="shared" si="12"/>
@@ -50002,23 +50033,23 @@
       </c>
       <c r="F52" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="14"/>
-        <v>-24.3</v>
+        <v>-102</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J52" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -50028,15 +50059,15 @@
       </c>
       <c r="B53" s="24">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="25">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E53" s="29">
         <f t="shared" si="12"/>
@@ -50044,23 +50075,23 @@
       </c>
       <c r="F53" s="3">
         <f t="shared" si="13"/>
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="14"/>
-        <v>-24</v>
+        <v>-100</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J53" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/roguelike/model/data/rogue_stats.xlsx
+++ b/roguelike/model/data/rogue_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\roguelike\roguelike\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C477D7E-9072-4B0A-A723-E0514999DDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7245BC8-0145-4DDA-A6FF-3F1934D70441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="671" firstSheet="9" activeTab="19" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
   </bookViews>
@@ -13351,157 +13351,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>-16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="45">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13522,7 +13522,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ax5</c:v>
+                  <c:v>ax10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13723,19 +13723,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -13753,19 +13753,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
@@ -13783,19 +13783,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
@@ -13813,19 +13813,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4</c:v>
@@ -13843,19 +13843,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5</c:v>
@@ -14071,151 +14071,151 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -53882,7 +53882,7 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L5" sqref="L5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53906,20 +53906,20 @@
       </c>
       <c r="B1" s="36">
         <f>P5</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C1" s="37">
         <f>Q5</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="39">
         <f>R5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F1" s="37">
         <f>S5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="41">
@@ -53928,7 +53928,7 @@
       </c>
       <c r="I1" s="41">
         <f>U5</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J1" s="14"/>
       <c r="M1" s="31" t="s">
@@ -53965,11 +53965,11 @@
       </c>
       <c r="E2" s="32" t="str">
         <f>"x DIV "&amp;E1</f>
-        <v>x DIV 5</v>
+        <v>x DIV 10</v>
       </c>
       <c r="F2" s="33" t="str">
         <f>"ax"&amp;E1</f>
-        <v>ax5</v>
+        <v>ax10</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>3</v>
@@ -53988,19 +53988,19 @@
       </c>
       <c r="M2" s="30">
         <f>B1</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="30">
         <f>C1</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="O2" s="30">
         <f>E1</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P2" s="30">
         <f>F1</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="30">
         <f>H1</f>
@@ -54008,7 +54008,7 @@
       </c>
       <c r="R2" s="30">
         <f>I1</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -54021,11 +54021,11 @@
       </c>
       <c r="C3" s="2">
         <f>C$1</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="25">
         <f>SUM(B3:C3)</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="29">
         <f t="shared" ref="E3:E53" si="0">QUOTIENT(A3,$E$1)</f>
@@ -54037,7 +54037,7 @@
       </c>
       <c r="G3" s="4">
         <f>D3+F3</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
         <f>H$1</f>
@@ -54045,7 +54045,7 @@
       </c>
       <c r="I3" s="5">
         <f>I$1</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J3" s="15">
         <f>MIN(MAX(H3,INT(G3)),I3)</f>
@@ -54059,15 +54059,15 @@
       </c>
       <c r="B4" s="24">
         <f t="shared" ref="B4:B53" si="1">$B$1*A4</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C53" si="2">C$1</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" ref="D4:D53" si="3">SUM(B4:C4)</f>
-        <v>-13</v>
+        <v>10.5</v>
       </c>
       <c r="E4" s="29">
         <f t="shared" si="0"/>
@@ -54079,7 +54079,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G53" si="5">D4+F4</f>
-        <v>-13</v>
+        <v>10.5</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:I41" si="6">H$1</f>
@@ -54087,7 +54087,7 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J53" si="7">MIN(MAX(H4,INT(G4)),I4)</f>
@@ -54131,15 +54131,15 @@
       </c>
       <c r="B5" s="24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="0"/>
@@ -54151,7 +54151,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="6"/>
@@ -54159,14 +54159,14 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M5" s="42" t="s">
         <v>32</v>
@@ -54180,28 +54180,22 @@
         <v>Level</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(Data!E:E,Data!$A:$A,'Reverser from Data'!$L5,Data!$B:$B,'Reverser from Data'!$M5)</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(Data!F:F,Data!$A:$A,'Reverser from Data'!$L5,Data!$B:$B,'Reverser from Data'!$M5)</f>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(Data!G:G,Data!$A:$A,'Reverser from Data'!$L5,Data!$B:$B,'Reverser from Data'!$M5)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(Data!H:H,Data!$A:$A,'Reverser from Data'!$L5,Data!$B:$B,'Reverser from Data'!$M5)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(Data!I:I,Data!$A:$A,'Reverser from Data'!$L5,Data!$B:$B,'Reverser from Data'!$M5)</f>
         <v>10</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(Data!J:J,Data!$A:$A,'Reverser from Data'!$L5,Data!$B:$B,'Reverser from Data'!$M5)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -54211,15 +54205,15 @@
       </c>
       <c r="B6" s="24">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>11.5</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="0"/>
@@ -54231,7 +54225,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
-        <v>-7</v>
+        <v>11.5</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="6"/>
@@ -54239,14 +54233,14 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>36</v>
@@ -54261,27 +54255,27 @@
       </c>
       <c r="P6">
         <f>SUMIFS(Data!E:E,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <f>SUMIFS(Data!F:F,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f>SUMIFS(Data!G:G,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <f>SUMIFS(Data!H:H,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>-20</v>
+        <v>0.1</v>
       </c>
       <c r="T6">
         <f>SUMIFS(Data!I:I,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>SUMIFS(Data!J:J,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -54291,15 +54285,15 @@
       </c>
       <c r="B7" s="24">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
@@ -54311,7 +54305,7 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="6"/>
@@ -54319,11 +54313,11 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M7" s="42" t="s">
         <v>32</v>
@@ -54336,27 +54330,27 @@
       </c>
       <c r="B8" s="24">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>12.5</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>-0.5</v>
+        <v>12.5</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="6"/>
@@ -54364,11 +54358,11 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -54378,27 +54372,27 @@
       </c>
       <c r="B9" s="24">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="6"/>
@@ -54406,11 +54400,11 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -54420,27 +54414,27 @@
       </c>
       <c r="B10" s="24">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="E10" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="6"/>
@@ -54448,11 +54442,11 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -54462,27 +54456,27 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="5"/>
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="6"/>
@@ -54490,11 +54484,11 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -54504,27 +54498,27 @@
       </c>
       <c r="B12" s="24">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>4.5</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="5"/>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="6"/>
@@ -54532,11 +54526,11 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -54546,19 +54540,19 @@
       </c>
       <c r="B13" s="24">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="4"/>
@@ -54566,7 +54560,7 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="6"/>
@@ -54574,11 +54568,11 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -54588,19 +54582,19 @@
       </c>
       <c r="B14" s="24">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="4"/>
@@ -54608,7 +54602,7 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="6"/>
@@ -54616,11 +54610,11 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -54630,19 +54624,19 @@
       </c>
       <c r="B15" s="24">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="4"/>
@@ -54650,7 +54644,7 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="6"/>
@@ -54658,11 +54652,11 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -54672,19 +54666,19 @@
       </c>
       <c r="B16" s="24">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>6.5</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="E16" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="4"/>
@@ -54692,7 +54686,7 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="6"/>
@@ -54700,11 +54694,11 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -54714,19 +54708,19 @@
       </c>
       <c r="B17" s="24">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E17" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="4"/>
@@ -54734,7 +54728,7 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="6"/>
@@ -54742,11 +54736,11 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -54756,27 +54750,27 @@
       </c>
       <c r="B18" s="24">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>7.5</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="E18" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
-        <v>30.5</v>
+        <v>18.5</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="6"/>
@@ -54784,11 +54778,11 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -54798,27 +54792,27 @@
       </c>
       <c r="B19" s="24">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
-        <v>33.5</v>
+        <v>19</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="6"/>
@@ -54826,11 +54820,11 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -54840,27 +54834,27 @@
       </c>
       <c r="B20" s="24">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>18.5</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
-        <v>36.5</v>
+        <v>19.5</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="6"/>
@@ -54868,11 +54862,11 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -54882,27 +54876,27 @@
       </c>
       <c r="B21" s="24">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>39.5</v>
+        <v>20</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="6"/>
@@ -54910,11 +54904,11 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -54924,27 +54918,27 @@
       </c>
       <c r="B22" s="24">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>9.5</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="E22" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
-        <v>42.5</v>
+        <v>20.5</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="6"/>
@@ -54952,11 +54946,11 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -54966,19 +54960,19 @@
       </c>
       <c r="B23" s="24">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E23" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="4"/>
@@ -54986,7 +54980,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="6"/>
@@ -54994,11 +54988,11 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -55008,19 +55002,19 @@
       </c>
       <c r="B24" s="24">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>10.5</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>20.5</v>
       </c>
       <c r="E24" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="4"/>
@@ -55028,7 +55022,7 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>22.5</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="6"/>
@@ -55036,11 +55030,11 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -55050,19 +55044,19 @@
       </c>
       <c r="B25" s="24">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E25" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="4"/>
@@ -55070,7 +55064,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="6"/>
@@ -55078,11 +55072,11 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -55092,19 +55086,19 @@
       </c>
       <c r="B26" s="24">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>11.5</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>21.5</v>
       </c>
       <c r="E26" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="4"/>
@@ -55112,7 +55106,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>23.5</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="6"/>
@@ -55120,11 +55114,11 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -55134,19 +55128,19 @@
       </c>
       <c r="B27" s="24">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E27" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="4"/>
@@ -55154,7 +55148,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="6"/>
@@ -55162,11 +55156,11 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -55176,27 +55170,27 @@
       </c>
       <c r="B28" s="24">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>12.5</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>22.5</v>
       </c>
       <c r="E28" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="5"/>
-        <v>61.5</v>
+        <v>24.5</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="6"/>
@@ -55204,11 +55198,11 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -55218,27 +55212,27 @@
       </c>
       <c r="B29" s="24">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D29" s="25">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E29" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="5"/>
-        <v>64.5</v>
+        <v>25</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="6"/>
@@ -55246,11 +55240,11 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -55260,27 +55254,27 @@
       </c>
       <c r="B30" s="24">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>13.5</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D30" s="25">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>23.5</v>
       </c>
       <c r="E30" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="5"/>
-        <v>67.5</v>
+        <v>25.5</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="6"/>
@@ -55288,11 +55282,11 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -55302,27 +55296,27 @@
       </c>
       <c r="B31" s="24">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D31" s="25">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E31" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="5"/>
-        <v>70.5</v>
+        <v>26</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="6"/>
@@ -55330,11 +55324,11 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -55344,27 +55338,27 @@
       </c>
       <c r="B32" s="24">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>14.5</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D32" s="25">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>24.5</v>
       </c>
       <c r="E32" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="5"/>
-        <v>73.5</v>
+        <v>26.5</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="6"/>
@@ -55372,11 +55366,11 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -55386,19 +55380,19 @@
       </c>
       <c r="B33" s="24">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D33" s="25">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E33" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="4"/>
@@ -55406,7 +55400,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="6"/>
@@ -55414,11 +55408,11 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -55428,19 +55422,19 @@
       </c>
       <c r="B34" s="24">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>15.5</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D34" s="25">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>25.5</v>
       </c>
       <c r="E34" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="4"/>
@@ -55448,7 +55442,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>28.5</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="6"/>
@@ -55456,11 +55450,11 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -55470,19 +55464,19 @@
       </c>
       <c r="B35" s="24">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D35" s="25">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="4"/>
@@ -55490,7 +55484,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="6"/>
@@ -55498,11 +55492,11 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -55512,19 +55506,19 @@
       </c>
       <c r="B36" s="24">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>16.5</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D36" s="25">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>26.5</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="4"/>
@@ -55532,7 +55526,7 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>29.5</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="6"/>
@@ -55540,11 +55534,11 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -55554,19 +55548,19 @@
       </c>
       <c r="B37" s="24">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D37" s="25">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E37" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="4"/>
@@ -55574,7 +55568,7 @@
       </c>
       <c r="G37" s="4">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="6"/>
@@ -55582,11 +55576,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -55596,27 +55590,27 @@
       </c>
       <c r="B38" s="24">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>17.5</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D38" s="25">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>27.5</v>
       </c>
       <c r="E38" s="29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="5"/>
-        <v>92.5</v>
+        <v>30.5</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="6"/>
@@ -55624,11 +55618,11 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -55638,27 +55632,27 @@
       </c>
       <c r="B39" s="24">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D39" s="25">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E39" s="29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="5"/>
-        <v>95.5</v>
+        <v>31</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="6"/>
@@ -55666,11 +55660,11 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -55680,27 +55674,27 @@
       </c>
       <c r="B40" s="24">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>18.5</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D40" s="25">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>28.5</v>
       </c>
       <c r="E40" s="29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="5"/>
-        <v>98.5</v>
+        <v>31.5</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="6"/>
@@ -55708,11 +55702,11 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -55722,27 +55716,27 @@
       </c>
       <c r="B41" s="24">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D41" s="25">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E41" s="29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="5"/>
-        <v>101.5</v>
+        <v>32</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="6"/>
@@ -55750,11 +55744,11 @@
       </c>
       <c r="I41" s="5">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J41" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -55764,27 +55758,27 @@
       </c>
       <c r="B42" s="24">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>19.5</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D42" s="25">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>29.5</v>
       </c>
       <c r="E42" s="29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="5"/>
-        <v>104.5</v>
+        <v>32.5</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ref="H42:I53" si="9">H$1</f>
@@ -55792,11 +55786,11 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -55806,19 +55800,19 @@
       </c>
       <c r="B43" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D43" s="25">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E43" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="4"/>
@@ -55826,7 +55820,7 @@
       </c>
       <c r="G43" s="4">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="9"/>
@@ -55834,11 +55828,11 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -55848,19 +55842,19 @@
       </c>
       <c r="B44" s="24">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>20.5</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D44" s="25">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>30.5</v>
       </c>
       <c r="E44" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="4"/>
@@ -55868,7 +55862,7 @@
       </c>
       <c r="G44" s="4">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>34.5</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="9"/>
@@ -55876,11 +55870,11 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -55890,19 +55884,19 @@
       </c>
       <c r="B45" s="24">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D45" s="25">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E45" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="4"/>
@@ -55910,7 +55904,7 @@
       </c>
       <c r="G45" s="4">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="9"/>
@@ -55918,11 +55912,11 @@
       </c>
       <c r="I45" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -55932,19 +55926,19 @@
       </c>
       <c r="B46" s="24">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>21.5</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D46" s="25">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>31.5</v>
       </c>
       <c r="E46" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="4"/>
@@ -55952,7 +55946,7 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>35.5</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="9"/>
@@ -55960,11 +55954,11 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -55974,19 +55968,19 @@
       </c>
       <c r="B47" s="24">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D47" s="25">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="E47" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="4"/>
@@ -55994,7 +55988,7 @@
       </c>
       <c r="G47" s="4">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="9"/>
@@ -56002,11 +55996,11 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -56016,27 +56010,27 @@
       </c>
       <c r="B48" s="24">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>22.5</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>32.5</v>
       </c>
       <c r="E48" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="5"/>
-        <v>123.5</v>
+        <v>36.5</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="9"/>
@@ -56044,11 +56038,11 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -56058,27 +56052,27 @@
       </c>
       <c r="B49" s="24">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D49" s="25">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="E49" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="5"/>
-        <v>126.5</v>
+        <v>37</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" si="9"/>
@@ -56086,11 +56080,11 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J49" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -56100,27 +56094,27 @@
       </c>
       <c r="B50" s="24">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>23.5</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D50" s="25">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>33.5</v>
       </c>
       <c r="E50" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="5"/>
-        <v>129.5</v>
+        <v>37.5</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="9"/>
@@ -56128,11 +56122,11 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -56142,27 +56136,27 @@
       </c>
       <c r="B51" s="24">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D51" s="25">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="E51" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="5"/>
-        <v>132.5</v>
+        <v>38</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="9"/>
@@ -56170,11 +56164,11 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -56184,27 +56178,27 @@
       </c>
       <c r="B52" s="24">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>24.5</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D52" s="25">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>34.5</v>
       </c>
       <c r="E52" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="5"/>
-        <v>135.5</v>
+        <v>38.5</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" si="9"/>
@@ -56212,11 +56206,11 @@
       </c>
       <c r="I52" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J52" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -56226,19 +56220,19 @@
       </c>
       <c r="B53" s="24">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="D53" s="25">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="E53" s="29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="4"/>
@@ -56246,7 +56240,7 @@
       </c>
       <c r="G53" s="4">
         <f t="shared" si="5"/>
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" si="9"/>
@@ -56254,11 +56248,11 @@
       </c>
       <c r="I53" s="5">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J53" s="15">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/roguelike/model/data/rogue_stats.xlsx
+++ b/roguelike/model/data/rogue_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\roguelike\roguelike\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7245BC8-0145-4DDA-A6FF-3F1934D70441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35B7BF-56C2-445A-9FF2-44E0844672C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="671" firstSheet="9" activeTab="19" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="671" firstSheet="10" activeTab="23" xr2:uid="{5CB7D2FB-DC00-41F8-A371-36122BC790D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -33,25 +33,22 @@
     <sheet name="MaxXPPerRoom" sheetId="24" r:id="rId18"/>
     <sheet name="Reverser" sheetId="23" r:id="rId19"/>
     <sheet name="Reverser from Data" sheetId="26" r:id="rId20"/>
-    <sheet name="Data" sheetId="25" r:id="rId21"/>
+    <sheet name="Reverser from Templates" sheetId="28" r:id="rId21"/>
+    <sheet name="TemplateBuilder" sheetId="29" r:id="rId22"/>
+    <sheet name="Data" sheetId="25" r:id="rId23"/>
+    <sheet name="Templates" sheetId="27" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="96">
   <si>
     <t>d</t>
   </si>
@@ -318,6 +315,27 @@
   </si>
   <si>
     <t>Copper</t>
+  </si>
+  <si>
+    <t>Easy-common</t>
+  </si>
+  <si>
+    <t>L5-easy-common</t>
+  </si>
+  <si>
+    <t>L5-easy-uncommon</t>
+  </si>
+  <si>
+    <t>L5-easy-rare</t>
+  </si>
+  <si>
+    <t>L10-easy-common</t>
+  </si>
+  <si>
+    <t>L10-easy-uncommon</t>
+  </si>
+  <si>
+    <t>L10-easy-rare</t>
   </si>
 </sst>
 </file>
@@ -14224,6 +14242,2592 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6C11-40E3-99CB-25859D22D693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="219670847"/>
+        <c:axId val="136156111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="219670847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136156111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136156111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219670847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reverser from Templates'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=(ax+b)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Reverser from Templates'!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reverser from Templates'!$D$3:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FB9-4D99-A57E-D17957623CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reverser from Templates'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ax6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Reverser from Templates'!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reverser from Templates'!$F$3:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FB9-4D99-A57E-D17957623CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reverser from Templates'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int(total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Reverser from Templates'!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reverser from Templates'!$J$3:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FB9-4D99-A57E-D17957623CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="219670847"/>
+        <c:axId val="136156111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="219670847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136156111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136156111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219670847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TemplateBuilder!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=(ax+b)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TemplateBuilder!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TemplateBuilder!$D$3:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A7C-4B40-8445-77A60CE79D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TemplateBuilder!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ax11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TemplateBuilder!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TemplateBuilder!$F$3:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A7C-4B40-8445-77A60CE79D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TemplateBuilder!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int(total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TemplateBuilder!$A$3:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TemplateBuilder!$J$3:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A7C-4B40-8445-77A60CE79D03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22323,6 +24927,86 @@
 </file>
 
 <file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -29350,6 +32034,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -33517,6 +37233,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5D7964-DC30-43F9-AD71-A4916DFC83F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C1CB33-F3A4-4B29-A023-857DFABD0AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -53881,8 +57683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD4AE5C-2352-475C-94DB-AB8A4233A1F8}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:U5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54166,7 +57968,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="M5" s="42" t="s">
         <v>32</v>
@@ -54240,7 +58042,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="M6" s="42" t="s">
         <v>36</v>
@@ -54255,19 +58057,19 @@
       </c>
       <c r="P6">
         <f>SUMIFS(Data!E:E,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>SUMIFS(Data!F:F,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>SUMIFS(Data!G:G,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>SUMIFS(Data!H:H,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>SUMIFS(Data!I:I,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
@@ -54275,7 +58077,7 @@
       </c>
       <c r="U6">
         <f>SUMIFS(Data!J:J,Data!$A:$A,'Reverser from Data'!$L6,Data!$B:$B,'Reverser from Data'!$M6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -56275,12 +60077,4810 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD05C92-314E-47D5-947F-CC1E3B75F737}">
+  <dimension ref="A1:U53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36">
+        <f>P5</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="37">
+        <f>Q5</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39">
+        <f>R5</f>
+        <v>6</v>
+      </c>
+      <c r="F1" s="37">
+        <f>S5</f>
+        <v>-15</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="41">
+        <f>U5</f>
+        <v>4</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="M1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <f>"x DIV "&amp;E1</f>
+        <v>x DIV 6</v>
+      </c>
+      <c r="F2" s="33" t="str">
+        <f>"ax"&amp;E1</f>
+        <v>ax6</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="30">
+        <f>B1</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="30">
+        <f>C1</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="30">
+        <f>E1</f>
+        <v>6</v>
+      </c>
+      <c r="P2" s="30">
+        <f>F1</f>
+        <v>-15</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="30">
+        <f>I1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <f>$B$1*A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C$1</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SUM(B3:C3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" ref="E3:E53" si="0">QUOTIENT(A3,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3+F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <f>H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>I$1</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="15">
+        <f>MIN(MAX(H3,INT(G3)),I3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>A3+$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <f t="shared" ref="B4:B53" si="1">$B$1*A4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C53" si="2">C$1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D53" si="3">SUM(B4:C4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F53" si="4">E4*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G53" si="5">D4+F4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:I41" si="6">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J53" si="7">MIN(MAX(H4,INT(G4)),I4)</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A53" si="8">A4+$A$1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="str">
+        <f>VLOOKUP($L5, Templates!$A:$J,3)</f>
+        <v>Room</v>
+      </c>
+      <c r="O5" t="str">
+        <f>VLOOKUP($L5,Templates!$A:$J,4)</f>
+        <v>Level</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS(Templates!E:E,Templates!$A:$A,'Reverser from Templates'!$L5,Templates!$B:$B,'Reverser from Templates'!$M5)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS(Templates!F:F,Templates!$A:$A,'Reverser from Templates'!$L5,Templates!$B:$B,'Reverser from Templates'!$M5)</f>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>SUMIFS(Templates!G:G,Templates!$A:$A,'Reverser from Templates'!$L5,Templates!$B:$B,'Reverser from Templates'!$M5)</f>
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <f>SUMIFS(Templates!H:H,Templates!$A:$A,'Reverser from Templates'!$L5,Templates!$B:$B,'Reverser from Templates'!$M5)</f>
+        <v>-15</v>
+      </c>
+      <c r="T5">
+        <f>SUMIFS(Templates!I:I,Templates!$A:$A,'Reverser from Templates'!$L5,Templates!$B:$B,'Reverser from Templates'!$M5)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>SUMIFS(Templates!J:J,Templates!$A:$A,'Reverser from Templates'!$L5,Templates!$B:$B,'Reverser from Templates'!$M5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="str">
+        <f>VLOOKUP($L6, Templates!$A:$J,3)</f>
+        <v>Room</v>
+      </c>
+      <c r="O6" t="str">
+        <f>VLOOKUP($L6,Data!$A:$J,4)</f>
+        <v>Level</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS(Templates!E:E,Templates!$A:$A,'Reverser from Templates'!$L6,Templates!$B:$B,'Reverser from Templates'!$M6)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(Templates!F:F,Templates!$A:$A,'Reverser from Templates'!$L6,Templates!$B:$B,'Reverser from Templates'!$M6)</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>SUMIFS(Templates!G:G,Templates!$A:$A,'Reverser from Templates'!$L6,Templates!$B:$B,'Reverser from Templates'!$M6)</f>
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <f>SUMIFS(Templates!H:H,Templates!$A:$A,'Reverser from Templates'!$L6,Templates!$B:$B,'Reverser from Templates'!$M6)</f>
+        <v>-15</v>
+      </c>
+      <c r="T6">
+        <f>SUMIFS(Templates!I:I,Templates!$A:$A,'Reverser from Templates'!$L6,Templates!$B:$B,'Reverser from Templates'!$M6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>SUMIFS(Templates!J:J,Templates!$A:$A,'Reverser from Templates'!$L6,Templates!$B:$B,'Reverser from Templates'!$M6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="5"/>
+        <v>-17</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>-26</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>-25</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="5"/>
+        <v>-24</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>-23</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="5"/>
+        <v>-22</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="5"/>
+        <v>-21</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
+        <v>-35</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="5"/>
+        <v>-34</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>-32</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="5"/>
+        <v>-31</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="5"/>
+        <v>-30</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>-44</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="5"/>
+        <v>-43</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="24">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>-42</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="24">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="5"/>
+        <v>-41</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="24">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>-40</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="24">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="5"/>
+        <v>-39</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="24">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="5"/>
+        <v>-53</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="24">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="E40" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="5"/>
+        <v>-52</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="24">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="E41" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="5"/>
+        <v>-51</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="24">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="E42" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ref="H42:I53" si="9">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="E43" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="5"/>
+        <v>-49</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="24">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E44" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="5"/>
+        <v>-48</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="24">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="5"/>
+        <v>-62</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="24">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E46" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="5"/>
+        <v>-61</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="24">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="5"/>
+        <v>-60</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="24">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="5"/>
+        <v>-59</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="24">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="E49" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="5"/>
+        <v>-58</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="24">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="5"/>
+        <v>-57</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="5"/>
+        <v>-71</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="24">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="5"/>
+        <v>-70</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="24">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="5"/>
+        <v>-69</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D37A16-2A47-4420-812C-56A72BE784C2}">
+  <dimension ref="A1:U53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U5" sqref="P5:U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="15"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36">
+        <f>P5</f>
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="37">
+        <f>Q5</f>
+        <v>-6</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39">
+        <f>R5</f>
+        <v>11</v>
+      </c>
+      <c r="F1" s="37">
+        <f>S5</f>
+        <v>-30</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="41">
+        <f>U5</f>
+        <v>1</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="M1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <f>"x DIV "&amp;E1</f>
+        <v>x DIV 11</v>
+      </c>
+      <c r="F2" s="33" t="str">
+        <f>"ax"&amp;E1</f>
+        <v>ax11</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="30">
+        <f>B1</f>
+        <v>1.5</v>
+      </c>
+      <c r="N2" s="30">
+        <f>C1</f>
+        <v>-6</v>
+      </c>
+      <c r="O2" s="30">
+        <f>E1</f>
+        <v>11</v>
+      </c>
+      <c r="P2" s="30">
+        <f>F1</f>
+        <v>-30</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="30">
+        <f>I1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <f>$B$1*A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C$1</f>
+        <v>-6</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SUM(B3:C3)</f>
+        <v>-6</v>
+      </c>
+      <c r="E3" s="29">
+        <f t="shared" ref="E3:E53" si="0">QUOTIENT(A3,$E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3+F3</f>
+        <v>-6</v>
+      </c>
+      <c r="H3" s="5">
+        <f>H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <f>MIN(MAX(H3,INT(G3)),I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>A3+$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <f t="shared" ref="B4:B53" si="1">$B$1*A4</f>
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C53" si="2">C$1</f>
+        <v>-6</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D53" si="3">SUM(B4:C4)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F53" si="4">E4*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G53" si="5">D4+F4</f>
+        <v>-4.5</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:I41" si="6">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J53" si="7">MIN(MAX(H4,INT(G4)),I4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A53" si="8">A4+$A$1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="str">
+        <f>VLOOKUP($L5, Templates!$A:$J,3)</f>
+        <v>Room</v>
+      </c>
+      <c r="O5" t="str">
+        <f>VLOOKUP($L5,Data!$A:$J,4)</f>
+        <v>Level</v>
+      </c>
+      <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>-6</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>-30</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="str">
+        <f>VLOOKUP($L6, Templates!$A:$J,3)</f>
+        <v>Room</v>
+      </c>
+      <c r="O6" t="str">
+        <f>VLOOKUP($L6,Data!$A:$J,4)</f>
+        <v>Level</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS(Templates!E:E,Templates!$A:$A,TemplateBuilder!$L6,Templates!$B:$B,TemplateBuilder!$M6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(Templates!F:F,Templates!$A:$A,TemplateBuilder!$L6,Templates!$B:$B,TemplateBuilder!$M6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>SUMIFS(Templates!G:G,Templates!$A:$A,TemplateBuilder!$L6,Templates!$B:$B,TemplateBuilder!$M6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>SUMIFS(Templates!H:H,Templates!$A:$A,TemplateBuilder!$L6,Templates!$B:$B,TemplateBuilder!$M6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>SUMIFS(Templates!I:I,Templates!$A:$A,TemplateBuilder!$L6,Templates!$B:$B,TemplateBuilder!$M6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>SUMIFS(Templates!J:J,Templates!$A:$A,TemplateBuilder!$L6,Templates!$B:$B,TemplateBuilder!$M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>-19.5</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="5"/>
+        <v>-18</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="5"/>
+        <v>-16.5</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>-13.5</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>-10.5</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.5</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>-4.5</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="5"/>
+        <v>-31.5</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
+        <v>-30</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="5"/>
+        <v>-28.5</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
+        <v>-27</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="3"/>
+        <v>34.5</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>-25.5</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="5"/>
+        <v>-24</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <f t="shared" si="1"/>
+        <v>43.5</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="5"/>
+        <v>-22.5</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>-21</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="24">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="3"/>
+        <v>40.5</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="5"/>
+        <v>-19.5</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>-18</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="24">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="5"/>
+        <v>-46.5</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="24">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>-45</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="24">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" si="3"/>
+        <v>46.5</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="5"/>
+        <v>-43.5</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="24">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E39" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="5"/>
+        <v>-42</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="24">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" si="3"/>
+        <v>49.5</v>
+      </c>
+      <c r="E40" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="5"/>
+        <v>-40.5</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="24">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E41" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="5"/>
+        <v>-39</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="24">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D42" s="25">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+      <c r="E42" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="5"/>
+        <v>-37.5</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ref="H42:I53" si="9">H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="24">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E43" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="5"/>
+        <v>-36</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="24">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="3"/>
+        <v>55.5</v>
+      </c>
+      <c r="E44" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="5"/>
+        <v>-34.5</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="24">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="24">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="3"/>
+        <v>58.5</v>
+      </c>
+      <c r="E46" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="5"/>
+        <v>-31.5</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="24">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="5"/>
+        <v>-60</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="24">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="3"/>
+        <v>61.5</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="5"/>
+        <v>-58.5</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="24">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E49" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="5"/>
+        <v>-57</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="24">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="3"/>
+        <v>64.5</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="5"/>
+        <v>-55.5</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="24">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="5"/>
+        <v>-54</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="24">
+        <f t="shared" si="1"/>
+        <v>73.5</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="5"/>
+        <v>-52.5</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="24">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="5"/>
+        <v>-51</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E843F685-7007-49A8-995A-BD21626E8AE8}">
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59615,6 +68215,249 @@
       </c>
       <c r="J104">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A378C452-1EC4-4576-812C-F51CC3723BFE}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>-15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>-15</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>-15</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>-30</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>-30</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>-30</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
